--- a/_files/requirements/master_data/master-daysofweek_list.xlsx
+++ b/_files/requirements/master_data/master-daysofweek_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DC723042-0F59-411E-B284-943F2B574C1E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{45F56A80-C3AF-4723-B3FB-63A8A9902E60}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,48 +64,6 @@
     <t>السبت</t>
   </si>
   <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saturday </t>
-  </si>
-  <si>
-    <t>Dimanche</t>
-  </si>
-  <si>
-    <t>Lundi</t>
-  </si>
-  <si>
-    <t>Mardi</t>
-  </si>
-  <si>
-    <t>Mercredi</t>
-  </si>
-  <si>
-    <t>Jeudi</t>
-  </si>
-  <si>
-    <t>Vendredi</t>
-  </si>
-  <si>
-    <t>Samedi</t>
-  </si>
-  <si>
     <t>eng</t>
   </si>
   <si>
@@ -119,6 +77,48 @@
   </si>
   <si>
     <t>now()</t>
+  </si>
+  <si>
+    <t>SUN</t>
+  </si>
+  <si>
+    <t>MON</t>
+  </si>
+  <si>
+    <t>TUE</t>
+  </si>
+  <si>
+    <t>WED</t>
+  </si>
+  <si>
+    <t>THU</t>
+  </si>
+  <si>
+    <t>FRI</t>
+  </si>
+  <si>
+    <t>SAT</t>
+  </si>
+  <si>
+    <t>DIM</t>
+  </si>
+  <si>
+    <t>LUN</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>MER</t>
+  </si>
+  <si>
+    <t>JEU</t>
+  </si>
+  <si>
+    <t>VIM</t>
+  </si>
+  <si>
+    <t>SAM</t>
   </si>
 </sst>
 </file>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -482,22 +482,22 @@
         <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -505,22 +505,22 @@
         <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -528,22 +528,22 @@
         <v>103</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -551,22 +551,22 @@
         <v>104</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -574,22 +574,22 @@
         <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -597,22 +597,22 @@
         <v>106</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -620,22 +620,22 @@
         <v>107</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -649,16 +649,16 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -672,16 +672,16 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -695,16 +695,16 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -741,16 +741,16 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -764,16 +764,16 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -787,16 +787,16 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -804,22 +804,22 @@
         <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -827,22 +827,22 @@
         <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -850,22 +850,22 @@
         <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -873,22 +873,22 @@
         <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -896,22 +896,22 @@
         <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C20">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -919,22 +919,22 @@
         <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C21">
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -942,22 +942,22 @@
         <v>107</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C22">
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/_files/requirements/master_data/master-daysofweek_list.xlsx
+++ b/_files/requirements/master_data/master-daysofweek_list.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{45F56A80-C3AF-4723-B3FB-63A8A9902E60}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Master DB\Master Data Sample\xls Version\csv Version\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D97CE317-9D91-4895-8B9C-6125A5465FCF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="master-daysofweek_list" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="34">
   <si>
     <t>code</t>
   </si>
@@ -31,6 +31,9 @@
     <t>day_seq</t>
   </si>
   <si>
+    <t>is_global_working</t>
+  </si>
+  <si>
     <t>lang_code</t>
   </si>
   <si>
@@ -43,9 +46,42 @@
     <t>cr_dtimes</t>
   </si>
   <si>
+    <t>SUN</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>superadmin</t>
+  </si>
+  <si>
+    <t>now()</t>
+  </si>
+  <si>
+    <t>MON</t>
+  </si>
+  <si>
+    <t>TUE</t>
+  </si>
+  <si>
+    <t>WED</t>
+  </si>
+  <si>
+    <t>THU</t>
+  </si>
+  <si>
+    <t>FRI</t>
+  </si>
+  <si>
+    <t>SAT</t>
+  </si>
+  <si>
     <t>الاحد</t>
   </si>
   <si>
+    <t>ara</t>
+  </si>
+  <si>
     <t>الاثنين</t>
   </si>
   <si>
@@ -64,45 +100,12 @@
     <t>السبت</t>
   </si>
   <si>
-    <t>eng</t>
-  </si>
-  <si>
-    <t>ara</t>
+    <t>DIM</t>
   </si>
   <si>
     <t>fra</t>
   </si>
   <si>
-    <t>superadmin</t>
-  </si>
-  <si>
-    <t>now()</t>
-  </si>
-  <si>
-    <t>SUN</t>
-  </si>
-  <si>
-    <t>MON</t>
-  </si>
-  <si>
-    <t>TUE</t>
-  </si>
-  <si>
-    <t>WED</t>
-  </si>
-  <si>
-    <t>THU</t>
-  </si>
-  <si>
-    <t>FRI</t>
-  </si>
-  <si>
-    <t>SAT</t>
-  </si>
-  <si>
-    <t>DIM</t>
-  </si>
-  <si>
     <t>LUN</t>
   </si>
   <si>
@@ -115,7 +118,7 @@
     <t>JEU</t>
   </si>
   <si>
-    <t>VIM</t>
+    <t>VEN</t>
   </si>
   <si>
     <t>SAM</t>
@@ -124,8 +127,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,21 +138,314 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -157,18 +453,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -200,7 +682,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -212,7 +694,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -259,6 +741,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -294,6 +793,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,16 +961,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,330 +990,375 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>101</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
+      <c r="B2" t="s">
+        <v>8</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>102</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
+      <c r="B3" t="s">
+        <v>12</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>103</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
+      <c r="B4" t="s">
+        <v>13</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>104</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
+      <c r="B5" t="s">
+        <v>14</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>105</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
+      <c r="B6" t="s">
+        <v>15</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>106</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
+      <c r="B7" t="s">
+        <v>16</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>107</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
+      <c r="B8" t="s">
+        <v>17</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>5</v>
       </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>17</v>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>6</v>
       </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>7</v>
       </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>101</v>
       </c>
@@ -809,159 +1368,179 @@
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>17</v>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>17</v>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>17</v>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>17</v>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20">
         <v>5</v>
       </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>17</v>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21">
         <v>6</v>
       </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>17</v>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>107</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22">
         <v>7</v>
       </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>17</v>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="b">
+        <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>